--- a/HLJT_local/hljt_files/Block_messages.xlsx
+++ b/HLJT_local/hljt_files/Block_messages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uclouvain-my.sharepoint.com/personal/marcos_morenoverdu_uclouvain_be/Documents/BAS-Lab/Project 4 - HLJT/PyschoPy Experiments/HLJT_local/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uclouvain-my.sharepoint.com/personal/marcos_morenoverdu_uclouvain_be/Documents/BAS-Lab/Github_repos/HLJT_local/hljt_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="8_{39513366-2D0D-4155-9FC3-9B0D2A5072E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87D47314-55F9-4340-AA70-88AEA971A3ED}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="8_{39513366-2D0D-4155-9FC3-9B0D2A5072E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37EE980A-7805-4D1B-BD33-D67BD0B2D911}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3128DB0A-6163-4D40-98DA-1667AB584357}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
-    <t>test_msg_en</t>
-  </si>
-  <si>
     <t>You have finished the first block</t>
   </si>
   <si>
@@ -50,15 +47,6 @@
     <t>You have finished the third block</t>
   </si>
   <si>
-    <t>block_pause_msg_en</t>
-  </si>
-  <si>
-    <t>test_msg_es</t>
-  </si>
-  <si>
-    <t>block_pause_msg_es</t>
-  </si>
-  <si>
     <t>Has finalizado el primer bloque</t>
   </si>
   <si>
@@ -66,12 +54,6 @@
   </si>
   <si>
     <t>Has finalizado el tercer bloque</t>
-  </si>
-  <si>
-    <t>test_msg_fr</t>
-  </si>
-  <si>
-    <t>block_pause_msg_fr</t>
   </si>
   <si>
     <t>Vous avez terminé le premier bloc</t>
@@ -138,6 +120,24 @@
   <si>
     <t>Vous allez maintenant faire les blocs de test
 Il y a 4 blocs, avec une pause entre les deux</t>
+  </si>
+  <si>
+    <t>block_pause_msg_EN</t>
+  </si>
+  <si>
+    <t>block_pause_msg_ES</t>
+  </si>
+  <si>
+    <t>block_pause_msg_FR</t>
+  </si>
+  <si>
+    <t>block_msg_EN</t>
+  </si>
+  <si>
+    <t>block_msg_ES</t>
+  </si>
+  <si>
+    <t>block_msg_FR</t>
   </si>
 </sst>
 </file>
@@ -195,8 +195,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -498,7 +502,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.6328125" customWidth="1"/>
     <col min="2" max="2" width="42.54296875" customWidth="1"/>
@@ -510,102 +514,102 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
